--- a/Encode_Decode/draw/data/yaw0_pitch20_roll0_edited.xlsx
+++ b/Encode_Decode/draw/data/yaw0_pitch20_roll0_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\OOC\LEDs_Data_Processing\Encode_Decode\draw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5D71D-78E2-4BA1-A044-9B44977E0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A9CF95-6816-4FFE-853D-E1CC476A8410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{D5CF9EE0-8CEF-4893-8FE4-9FD9F90D4FE2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="02_indoor_position_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'02_indoor_position_data'!$I$1:$I$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'02_indoor_position_data'!$J$1:$J$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -211,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -564,7 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,6 +579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C548CD-00AF-4C5C-8417-821BE1089392}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,79 +1014,79 @@
         <v>-50</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>130</v>
       </c>
       <c r="D2" s="1">
-        <v>-49.745125729999998</v>
+        <v>-56.666021409999999</v>
       </c>
       <c r="E2" s="1">
-        <v>40.590786399999999</v>
+        <v>-1.7641933489999999</v>
       </c>
       <c r="F2" s="1">
-        <v>137.03345580000001</v>
+        <v>138.10060240000001</v>
       </c>
       <c r="G2" s="1">
         <f>D2-A2</f>
-        <v>0.25487427000000196</v>
+        <v>-6.666021409999999</v>
       </c>
       <c r="H2" s="1">
         <f>E2-B2</f>
-        <v>0.59078639999999893</v>
+        <v>-1.7641933489999999</v>
       </c>
       <c r="I2" s="1">
         <f>F2-C2</f>
-        <v>7.0334558000000129</v>
+        <v>8.1006024000000139</v>
       </c>
       <c r="J2" s="1">
         <f>SQRT(G2*G2+H2*H2)</f>
-        <v>0.64342013018943744</v>
+        <v>6.8955217069656314</v>
       </c>
       <c r="K2" s="1">
         <f>SQRT(G2*G2+H2*H2+I2*I2)</f>
-        <v>7.0628245025971594</v>
+        <v>10.638043939283209</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="B3" s="1">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>130</v>
       </c>
       <c r="D3" s="1">
-        <v>39.755644439999998</v>
+        <v>-31.721611100000001</v>
       </c>
       <c r="E3" s="1">
-        <v>-59.29367457</v>
+        <v>1.134747986</v>
       </c>
       <c r="F3" s="1">
-        <v>137.12652850000001</v>
+        <v>137.8521168</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">D3-A3</f>
-        <v>-0.24435556000000247</v>
+        <f>D3-A3</f>
+        <v>-1.7216111000000005</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="1">E3-B3</f>
-        <v>0.7063254299999997</v>
+        <f>E3-B3</f>
+        <v>1.134747986</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="2">F3-C3</f>
-        <v>7.1265285000000063</v>
+        <f>F3-C3</f>
+        <v>7.8521168000000046</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J66" si="3">SQRT(G3*G3+H3*H3)</f>
-        <v>0.74739899168222013</v>
+        <f>SQRT(G3*G3+H3*H3)</f>
+        <v>2.0619402928732606</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="4">SQRT(G3*G3+H3*H3+I3*I3)</f>
-        <v>7.1656132824818242</v>
+        <f>SQRT(G3*G3+H3*H3+I3*I3)</f>
+        <v>8.1183333272425173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1091,113 +1100,113 @@
         <v>130</v>
       </c>
       <c r="D4" s="1">
-        <v>9.2481943780000009</v>
+        <v>8.2481943780000009</v>
       </c>
       <c r="E4" s="1">
-        <v>-40.571252819999998</v>
+        <v>-42.571252819999998</v>
       </c>
       <c r="F4" s="1">
         <v>135.570063</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.75180562199999912</v>
+        <f>D4-A4</f>
+        <v>-1.7518056219999991</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.571252819999998</v>
+        <f>E4-B4</f>
+        <v>-2.571252819999998</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="2"/>
+        <f>F4-C4</f>
         <v>5.5700630000000046</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>0.94421474126850813</v>
+        <f>SQRT(G4*G4+H4*H4)</f>
+        <v>3.1112961931691343</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="4"/>
-        <v>5.6495259360054106</v>
+        <f>SQRT(G4*G4+H4*H4+I4*I4)</f>
+        <v>6.380107038725745</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="C5" s="1">
         <v>130</v>
       </c>
       <c r="D5" s="1">
-        <v>-18.905343240000001</v>
+        <v>1.494266342</v>
       </c>
       <c r="E5" s="1">
-        <v>-69.794739329999999</v>
-      </c>
-      <c r="F5" s="1">
-        <v>137.64666009999999</v>
+        <v>-61.428063870000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>137.48541760000001</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0946567599999995</v>
+        <f>D5-A5</f>
+        <v>1.494266342</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20526067000000126</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6466600999999912</v>
+        <f>E5-B5</f>
+        <v>-1.4280638700000026</v>
+      </c>
+      <c r="I5" s="2">
+        <f>F5-C5</f>
+        <v>7.4854176000000052</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1137348718894213</v>
+        <f>SQRT(G5*G5+H5*H5)</f>
+        <v>2.0669296837661033</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
-        <v>7.7273421077233548</v>
+        <f>SQRT(G5*G5+H5*H5+I5*I5)</f>
+        <v>7.7655440867992818</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>-40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>-40</v>
+        <v>-70</v>
       </c>
       <c r="C6" s="1">
         <v>130</v>
       </c>
       <c r="D6" s="1">
-        <v>-40.102311229999998</v>
+        <v>36.991173080000003</v>
       </c>
       <c r="E6" s="1">
-        <v>-41.181924440000003</v>
+        <v>-68.157214089999997</v>
       </c>
       <c r="F6" s="1">
-        <v>135.28168249999999</v>
+        <v>124.9420796</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.10231122999999798</v>
+        <f>D6-A6</f>
+        <v>6.9911730800000029</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.1819244400000031</v>
+        <f>E6-B6</f>
+        <v>1.8427859100000035</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2816824999999881</v>
+        <f>F6-C6</f>
+        <v>-5.0579204000000004</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1863443722854816</v>
+        <f>SQRT(G6*G6+H6*H6)</f>
+        <v>7.2299627208313648</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>5.4132783967259206</v>
+        <f>SQRT(G6*G6+H6*H6+I6*I6)</f>
+        <v>8.8235434898541438</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,39 +1214,39 @@
         <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="C7" s="1">
         <v>130</v>
       </c>
       <c r="D7" s="1">
-        <v>38.64791761</v>
+        <v>38.755644439999998</v>
       </c>
       <c r="E7" s="1">
-        <v>-9.5380791089999999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>128.5266781</v>
+        <v>-58.29367457</v>
+      </c>
+      <c r="F7" s="1">
+        <v>137.12652850000001</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3520823899999996</v>
+        <f>D7-A7</f>
+        <v>-1.2443555600000025</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.46192089100000011</v>
-      </c>
-      <c r="I7" s="2">
+        <f>E7-B7</f>
+        <v>1.7063254299999997</v>
+      </c>
+      <c r="I7" s="1">
         <f>F7-C7</f>
-        <v>-1.473321900000002</v>
+        <v>7.1265285000000063</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4288098889951542</v>
+        <f>SQRT(G7*G7+H7*H7)</f>
+        <v>2.111863450312923</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0523584287131622</v>
+        <f>SQRT(G7*G7+H7*H7+I7*I7)</f>
+        <v>7.4328578416434103</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1251,33 +1260,33 @@
         <v>130</v>
       </c>
       <c r="D8" s="1">
-        <v>39.05335015</v>
+        <v>36.05335015</v>
       </c>
       <c r="E8" s="1">
         <v>11.248374719999999</v>
       </c>
       <c r="F8" s="1">
-        <v>137.09527790000001</v>
+        <v>136.09527790000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.94664985000000001</v>
+        <f>D8-A8</f>
+        <v>-3.94664985</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f>E8-B8</f>
         <v>1.2483747199999993</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>7.0952779000000135</v>
+        <f>F8-C8</f>
+        <v>6.0952779000000135</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.5667116454664205</v>
+        <f>SQRT(G8*G8+H8*H8)</f>
+        <v>4.1393821374741542</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2661925282962807</v>
+        <f>SQRT(G8*G8+H8*H8+I8*I8)</f>
+        <v>7.3679642478956611</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,27 +1306,27 @@
         <v>-62.98566984</v>
       </c>
       <c r="F9" s="3">
-        <v>128.4542496</v>
+        <v>125.4542496</v>
       </c>
       <c r="G9" s="1">
         <f>D9-A9</f>
         <v>2.381644099999999</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f>E9-B9</f>
         <v>-2.9856698399999999</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.5457504000000029</v>
+        <f>F9-C9</f>
+        <v>-4.5457504000000029</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G9*G9+H9*H9)</f>
         <v>3.8192215191777539</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>4.1201695731669341</v>
+        <f>SQRT(G9*G9+H9*H9+I9*I9)</f>
+        <v>5.9371962837395413</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,27 +1346,27 @@
         <v>70.803201709999996</v>
       </c>
       <c r="F10" s="3">
-        <v>127.6180281</v>
+        <v>123.6180281</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f>D10-A10</f>
         <v>1.5139728729999999</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
+      <c r="H10" s="4">
+        <f>E10-B10</f>
         <v>0.80320170999999618</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.3819718999999964</v>
+        <f>F10-C10</f>
+        <v>-6.3819718999999964</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G10*G10+H10*H10)</f>
         <v>1.7138397962256542</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9344568457410283</v>
+        <f>SQRT(G10*G10+H10*H10+I10*I10)</f>
+        <v>6.6080868774189367</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1371,33 +1380,33 @@
         <v>130</v>
       </c>
       <c r="D11" s="1">
-        <v>-10.16958301</v>
+        <v>-13.16958301</v>
       </c>
       <c r="E11" s="1">
         <v>-68.274575970000001</v>
       </c>
       <c r="F11" s="1">
-        <v>138.4695644</v>
+        <v>137.4695644</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.1695830100000002</v>
+        <f>D11-A11</f>
+        <v>-3.1695830100000002</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f>E11-B11</f>
         <v>1.7254240299999992</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>8.4695643999999959</v>
+        <f>F11-C11</f>
+        <v>7.4695643999999959</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7337377196629538</v>
+        <f>SQRT(G11*G11+H11*H11)</f>
+        <v>3.6087871287431321</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>8.6451933238262164</v>
+        <f>SQRT(G11*G11+H11*H11+I11*I11)</f>
+        <v>8.2956456569895387</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,30 +1423,30 @@
         <v>18.33272483</v>
       </c>
       <c r="E12" s="1">
-        <v>-9.4029899500000003</v>
+        <v>-6.4029899500000003</v>
       </c>
       <c r="F12" s="3">
-        <v>128.4002016</v>
+        <v>125.4002016</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f>D12-A12</f>
         <v>-1.6672751699999999</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.59701004999999974</v>
+      <c r="H12" s="4">
+        <f>E12-B12</f>
+        <v>3.5970100499999997</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.5997983999999974</v>
+        <f>F12-C12</f>
+        <v>-4.5997983999999974</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7709397201202335</v>
+        <f>SQRT(G12*G12+H12*H12)</f>
+        <v>3.964629590806628</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>2.386541936137323</v>
+        <f>SQRT(G12*G12+H12*H12+I12*I12)</f>
+        <v>6.0725969002513303</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,33 +1460,33 @@
         <v>130</v>
       </c>
       <c r="D13" s="1">
-        <v>-70.215015629999996</v>
+        <v>-74.215015629999996</v>
       </c>
       <c r="E13" s="1">
         <v>18.13829175</v>
       </c>
       <c r="F13" s="1">
-        <v>138.52586930000001</v>
+        <v>136.52586930000001</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.21501562999999635</v>
+        <f>D13-A13</f>
+        <v>-4.2150156299999963</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f>E13-B13</f>
         <v>-1.8617082499999995</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5258693000000108</v>
+        <f>F13-C13</f>
+        <v>6.5258693000000108</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.8740835971915331</v>
+        <f>SQRT(G13*G13+H13*H13)</f>
+        <v>4.6078535533654197</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>8.7294121594724263</v>
+        <f>SQRT(G13*G13+H13*H13+I13*I13)</f>
+        <v>7.9886972961769525</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,153 +1500,153 @@
         <v>130</v>
       </c>
       <c r="D14" s="1">
-        <v>-40.473294189999997</v>
+        <v>-44.473294189999997</v>
       </c>
       <c r="E14" s="1">
         <v>58.134110200000002</v>
       </c>
       <c r="F14" s="1">
-        <v>134.20707189999999</v>
+        <v>134.5070719</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.47329418999999717</v>
+        <f>D14-A14</f>
+        <v>-4.4732941899999972</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f>E14-B14</f>
         <v>-1.8658897999999979</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.2070718999999883</v>
+        <f>F14-C14</f>
+        <v>4.5070718999999997</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>1.924981074200935</v>
+        <f>SQRT(G14*G14+H14*H14)</f>
+        <v>4.8468449176791042</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>4.6265544531326226</v>
+        <f>SQRT(G14*G14+H14*H14+I14*I14)</f>
+        <v>6.6185801172004686</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
         <v>-50</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
       <c r="C15" s="1">
         <v>130</v>
       </c>
       <c r="D15" s="1">
-        <v>-51.066021409999998</v>
+        <v>8.2731527499999995</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.7641933489999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>138.10060240000001</v>
+        <v>-48.753923370000003</v>
+      </c>
+      <c r="F15" s="3">
+        <v>135.00145280000001</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0660214099999976</v>
+        <f>D15-A15</f>
+        <v>-1.7268472500000005</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.7641933489999999</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1006024000000139</v>
+        <f>E15-B15</f>
+        <v>1.2460766299999975</v>
+      </c>
+      <c r="I15" s="2">
+        <f>F15-C15</f>
+        <v>5.0014528000000098</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>2.061256854260094</v>
+        <f>SQRT(G15*G15+H15*H15)</f>
+        <v>2.1294854760398616</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>8.358740279618706</v>
+        <f>SQRT(G15*G15+H15*H15+I15*I15)</f>
+        <v>5.435921127398065</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C16" s="1">
         <v>130</v>
       </c>
       <c r="D16" s="1">
-        <v>-31.721611100000001</v>
+        <v>-62.899961040000001</v>
       </c>
       <c r="E16" s="1">
-        <v>1.134747986</v>
+        <v>-42.133592059999998</v>
       </c>
       <c r="F16" s="1">
-        <v>137.8521168</v>
+        <v>123.48123870000001</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7216111000000005</v>
+        <f>D16-A16</f>
+        <v>7.1000389599999991</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.134747986</v>
+        <f>E16-B16</f>
+        <v>-2.133592059999998</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8521168000000046</v>
+        <f>F16-C16</f>
+        <v>-6.5187612999999942</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0619402928732606</v>
+        <f>SQRT(G16*G16+H16*H16)</f>
+        <v>7.4136879022530273</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>8.1183333272425173</v>
+        <f>SQRT(G16*G16+H16*H16+I16*I16)</f>
+        <v>9.8720320703688209</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B17" s="1">
-        <v>-60</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>130</v>
       </c>
       <c r="D17" s="1">
-        <v>1.494266342</v>
+        <v>-37.812545049999997</v>
       </c>
       <c r="E17" s="1">
-        <v>-61.428063870000003</v>
+        <v>52.10934254</v>
       </c>
       <c r="F17" s="3">
-        <v>131.48541760000001</v>
+        <v>135.95137249999999</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.494266342</v>
+        <f>D17-A17</f>
+        <v>-7.8125450499999971</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.4280638700000026</v>
+        <f>E17-B17</f>
+        <v>2.1093425400000001</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4854176000000052</v>
+        <f>F17-C17</f>
+        <v>5.9513724999999909</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0669296837661033</v>
+        <f>SQRT(G17*G17+H17*H17)</f>
+        <v>8.0922917711445077</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5453219372062192</v>
+        <f>SQRT(G17*G17+H17*H17+I17*I17)</f>
+        <v>10.045099339632698</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,147 +1666,147 @@
         <v>-63.02665734</v>
       </c>
       <c r="F18" s="3">
-        <v>126.6623337</v>
+        <v>125.6623337</v>
       </c>
       <c r="G18" s="1">
         <f>D18-A18</f>
         <v>1.8185439099999989</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f>E18-B18</f>
         <v>-3.0266573399999999</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.3376662999999951</v>
+        <f>F18-C18</f>
+        <v>-4.3376662999999951</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G18*G18+H18*H18)</f>
         <v>3.5309710571419246</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>4.8587830715653091</v>
+        <f>SQRT(G18*G18+H18*H18+I18*I18)</f>
+        <v>5.5931302091520818</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="B19" s="1">
-        <v>-70</v>
+        <v>-20</v>
       </c>
       <c r="C19" s="1">
         <v>130</v>
       </c>
       <c r="D19" s="1">
-        <v>30.991173079999999</v>
+        <v>-58.883204939999999</v>
       </c>
       <c r="E19" s="1">
-        <v>-68.157214089999997</v>
-      </c>
-      <c r="F19" s="1">
-        <v>126.9420796</v>
+        <v>-21.992314530000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>134.62205410000001</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99117307999999937</v>
+        <f>D19-A19</f>
+        <v>1.1167950600000012</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8427859100000035</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.0579204000000004</v>
+        <f>E19-B19</f>
+        <v>-1.9923145300000016</v>
+      </c>
+      <c r="I19" s="2">
+        <f>F19-C19</f>
+        <v>4.6220541000000139</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0924349415480581</v>
+        <f>SQRT(G19*G19+H19*H19)</f>
+        <v>2.2839764430679956</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
-        <v>3.705288269129325</v>
+        <f>SQRT(G19*G19+H19*H19+I19*I19)</f>
+        <v>5.1555729551444109</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="C20" s="1">
         <v>130</v>
       </c>
       <c r="D20" s="1">
-        <v>8.2731527499999995</v>
+        <v>31.8614453</v>
       </c>
       <c r="E20" s="1">
-        <v>-48.753923370000003</v>
-      </c>
-      <c r="F20" s="3">
-        <v>135.00145280000001</v>
+        <v>-18.63719257</v>
+      </c>
+      <c r="F20" s="1">
+        <v>137.9148026</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7268472500000005</v>
+        <f>D20-A20</f>
+        <v>1.8614452999999997</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2460766299999975</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>5.0014528000000098</v>
+        <f>E20-B20</f>
+        <v>1.3628074300000002</v>
+      </c>
+      <c r="I20" s="1">
+        <f>F20-C20</f>
+        <v>7.9148026000000016</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1294854760398616</v>
+        <f>SQRT(G20*G20+H20*H20)</f>
+        <v>2.3069942991163401</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>5.435921127398065</v>
+        <f>SQRT(G20*G20+H20*H20+I20*I20)</f>
+        <v>8.2441690238084089</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>-70</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>-40</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>130</v>
       </c>
       <c r="D21" s="1">
-        <v>-69.899961039999994</v>
+        <v>11.331196070000001</v>
       </c>
       <c r="E21" s="1">
-        <v>-42.133592059999998</v>
+        <v>71.915784059999993</v>
       </c>
       <c r="F21" s="1">
-        <v>126.48123870000001</v>
+        <v>136.10635210000001</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10003896000000623</v>
+        <f>D21-A21</f>
+        <v>1.3311960700000007</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.133592059999998</v>
+        <f>E21-B21</f>
+        <v>1.9157840599999929</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.5187612999999942</v>
+        <f>F21-C21</f>
+        <v>6.1063521000000094</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1359360645892278</v>
+        <f>SQRT(G21*G21+H21*H21)</f>
+        <v>2.3328762378946517</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>4.1162973602973061</v>
+        <f>SQRT(G21*G21+H21*H21+I21*I21)</f>
+        <v>6.5368071342596634</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1814,30 +1823,30 @@
         <v>32.09676108</v>
       </c>
       <c r="E22" s="1">
-        <v>29.567897179999999</v>
+        <v>27.567897179999999</v>
       </c>
       <c r="F22" s="1">
         <v>124.4613378</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f>D22-A22</f>
         <v>2.0967610800000003</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.43210282000000078</v>
+      <c r="H22" s="4">
+        <f>E22-B22</f>
+        <v>-2.4321028200000008</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="2"/>
+        <f>F22-C22</f>
         <v>-5.5386622000000045</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>2.140822242423392</v>
+        <f>SQRT(G22*G22+H22*H22)</f>
+        <v>3.2111572919517228</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>5.9380046176610213</v>
+        <f>SQRT(G22*G22+H22*H22+I22*I22)</f>
+        <v>6.4022113460400245</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,7 +1860,7 @@
         <v>130</v>
       </c>
       <c r="D23" s="1">
-        <v>69.962716900000004</v>
+        <v>66.962716900000004</v>
       </c>
       <c r="E23" s="1">
         <v>-62.205698689999998</v>
@@ -1860,184 +1869,184 @@
         <v>135.76021470000001</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.7283099999996239E-2</v>
+        <f>D23-A23</f>
+        <v>-3.0372830999999962</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f>E23-B23</f>
         <v>-2.2056986899999984</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="2"/>
+        <f>F23-C23</f>
         <v>5.7602147000000059</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2060137670951461</v>
+        <f>SQRT(G23*G23+H23*H23)</f>
+        <v>3.7536908957202768</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>6.1681901827610233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <f>SQRT(G23*G23+H23*H23+I23*I23)</f>
+        <v>6.875337717575003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="B24" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>130</v>
       </c>
       <c r="D24" s="1">
-        <v>-30.812545050000001</v>
+        <v>-22.14367682</v>
       </c>
       <c r="E24" s="1">
-        <v>52.10934254</v>
-      </c>
-      <c r="F24" s="3">
-        <v>135.95137249999999</v>
+        <v>40.969080740000003</v>
+      </c>
+      <c r="F24" s="1">
+        <v>136.17594389999999</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.81254505000000066</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1093425400000001</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>5.9513724999999909</v>
+        <f>D24-A24</f>
+        <v>-2.1436768199999996</v>
+      </c>
+      <c r="H24" s="4">
+        <f>E24-B24</f>
+        <v>0.96908074000000255</v>
+      </c>
+      <c r="I24" s="1">
+        <f>F24-C24</f>
+        <v>6.1759438999999929</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2604325712865569</v>
+        <f>SQRT(G24*G24+H24*H24)</f>
+        <v>2.3525449600898733</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3661911723643119</v>
+        <f>SQRT(G24*G24+H24*H24+I24*I24)</f>
+        <v>6.6088388424284776</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>-60</v>
+        <v>-70</v>
       </c>
       <c r="B25" s="1">
-        <v>-20</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1">
         <v>130</v>
       </c>
       <c r="D25" s="1">
-        <v>-58.883204939999999</v>
+        <v>-72.287743539999994</v>
       </c>
       <c r="E25" s="1">
-        <v>-21.992314530000002</v>
-      </c>
-      <c r="F25" s="3">
-        <v>134.62205410000001</v>
+        <v>59.409563849999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>137.38370459999999</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1167950600000012</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.9923145300000016</v>
-      </c>
-      <c r="I25" s="2">
+        <f>D25-A25</f>
+        <v>-2.2877435399999939</v>
+      </c>
+      <c r="H25" s="4">
+        <f>E25-B25</f>
+        <v>-0.59043615000000216</v>
+      </c>
+      <c r="I25" s="1">
         <f>F25-C25</f>
-        <v>4.6220541000000139</v>
+        <v>7.3837045999999873</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2839764430679956</v>
+        <f>SQRT(G25*G25+H25*H25)</f>
+        <v>2.3627072082758218</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1555729551444109</v>
+        <f>SQRT(G25*G25+H25*H25+I25*I25)</f>
+        <v>7.7525143645206809</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="C26" s="1">
         <v>130</v>
       </c>
       <c r="D26" s="1">
-        <v>31.8614453</v>
+        <v>58.216262980000003</v>
       </c>
       <c r="E26" s="1">
-        <v>-18.63719257</v>
+        <v>-48.414937729999998</v>
       </c>
       <c r="F26" s="1">
-        <v>137.9148026</v>
+        <v>135.5998443</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8614452999999997</v>
+        <f>D26-A26</f>
+        <v>-1.7837370199999967</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3628074300000002</v>
+        <f>E26-B26</f>
+        <v>1.5850622700000017</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9148026000000016</v>
+        <f>F26-C26</f>
+        <v>5.5998443000000009</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3069942991163401</v>
+        <f>SQRT(G26*G26+H26*H26)</f>
+        <v>2.3862397524758543</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
-        <v>8.2441690238084089</v>
+        <f>SQRT(G26*G26+H26*H26+I26*I26)</f>
+        <v>6.0870679592508683</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="B27" s="1">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="C27" s="1">
         <v>130</v>
       </c>
       <c r="D27" s="1">
-        <v>11.331196070000001</v>
+        <v>-42.102311229999998</v>
       </c>
       <c r="E27" s="1">
-        <v>71.915784059999993</v>
+        <v>-41.181924440000003</v>
       </c>
       <c r="F27" s="1">
-        <v>136.10635210000001</v>
+        <v>135.28168249999999</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3311960700000007</v>
+        <f>D27-A27</f>
+        <v>-2.102311229999998</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9157840599999929</v>
+        <f>E27-B27</f>
+        <v>-1.1819244400000031</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1063521000000094</v>
+        <f>F27-C27</f>
+        <v>5.2816824999999881</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3328762378946517</v>
+        <f>SQRT(G27*G27+H27*H27)</f>
+        <v>2.4117748422382683</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
-        <v>6.5368071342596634</v>
+        <f>SQRT(G27*G27+H27*H27+I27*I27)</f>
+        <v>5.8062748746902733</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2051,118 +2060,118 @@
         <v>130</v>
       </c>
       <c r="D28" s="1">
-        <v>29.69166607</v>
+        <v>26.69166607</v>
       </c>
       <c r="E28" s="1">
         <v>2.3179758330000002</v>
       </c>
       <c r="F28" s="1">
-        <v>136.6466126</v>
+        <v>135.6466126</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.30833392999999987</v>
+        <f>D28-A28</f>
+        <v>-3.3083339299999999</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f>E28-B28</f>
         <v>2.3179758330000002</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="2"/>
-        <v>6.6466125999999974</v>
+        <f>F28-C28</f>
+        <v>5.6466125999999974</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3383929898033156</v>
+        <f>SQRT(G28*G28+H28*H28)</f>
+        <v>4.0395649957342297</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
-        <v>7.0459591844716227</v>
+        <f>SQRT(G28*G28+H28*H28+I28*I28)</f>
+        <v>6.94278900797367</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1">
         <v>130</v>
       </c>
       <c r="D29" s="1">
-        <v>-22.14367682</v>
+        <v>12.0959939</v>
       </c>
       <c r="E29" s="1">
-        <v>40.969080740000003</v>
+        <v>61.232967449999997</v>
       </c>
       <c r="F29" s="1">
-        <v>136.17594389999999</v>
+        <v>125.1831691</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1436768199999996</v>
+        <f>D29-A29</f>
+        <v>2.0959938999999999</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>0.96908074000000255</v>
+        <f>E29-B29</f>
+        <v>1.2329674499999967</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1759438999999929</v>
+        <f>F29-C29</f>
+        <v>-4.8168308999999994</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3525449600898733</v>
+        <f>SQRT(G29*G29+H29*H29)</f>
+        <v>2.4317481698557324</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6088388424284776</v>
+        <f>SQRT(G29*G29+H29*H29+I29*I29)</f>
+        <v>5.3958557320217064</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B30" s="1">
         <v>-70</v>
       </c>
-      <c r="B30" s="1">
-        <v>60</v>
-      </c>
       <c r="C30" s="1">
         <v>130</v>
       </c>
       <c r="D30" s="1">
-        <v>-72.287743539999994</v>
+        <v>-18.905343240000001</v>
       </c>
       <c r="E30" s="1">
-        <v>59.409563849999998</v>
+        <v>-67.794739329999999</v>
       </c>
       <c r="F30" s="1">
-        <v>137.38370459999999</v>
+        <v>137.64666009999999</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.2877435399999939</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.59043615000000216</v>
+        <f>D30-A30</f>
+        <v>1.0946567599999995</v>
+      </c>
+      <c r="H30" s="4">
+        <f>E30-B30</f>
+        <v>2.2052606700000013</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3837045999999873</v>
+        <f>F30-C30</f>
+        <v>7.6466600999999912</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3627072082758218</v>
+        <f>SQRT(G30*G30+H30*H30)</f>
+        <v>2.4620008214585449</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
-        <v>7.7525143645206809</v>
+        <f>SQRT(G30*G30+H30*H30+I30*I30)</f>
+        <v>8.0332346367944734</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="B31" s="1">
         <v>-50</v>
@@ -2171,73 +2180,73 @@
         <v>130</v>
       </c>
       <c r="D31" s="1">
-        <v>58.216262980000003</v>
+        <v>-52.154889969999999</v>
       </c>
       <c r="E31" s="1">
-        <v>-48.414937729999998</v>
+        <v>-51.245543230000003</v>
       </c>
       <c r="F31" s="1">
-        <v>135.5998443</v>
+        <v>134.77196069999999</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7837370199999967</v>
+        <f>D31-A31</f>
+        <v>-2.1548899699999993</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5850622700000017</v>
+        <f>E31-B31</f>
+        <v>-1.2455432300000027</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="2"/>
-        <v>5.5998443000000009</v>
+        <f>F31-C31</f>
+        <v>4.7719606999999939</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3862397524758543</v>
+        <f>SQRT(G31*G31+H31*H31)</f>
+        <v>2.4889613738677099</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
-        <v>6.0870679592508683</v>
+        <f>SQRT(G31*G31+H31*H31+I31*I31)</f>
+        <v>5.3820570085191282</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1">
-        <v>60</v>
+        <v>-70</v>
       </c>
       <c r="C32" s="1">
         <v>130</v>
       </c>
       <c r="D32" s="1">
-        <v>12.0959939</v>
+        <v>17.9721124</v>
       </c>
       <c r="E32" s="1">
-        <v>61.232967449999997</v>
+        <v>-68.540437699999998</v>
       </c>
       <c r="F32" s="1">
-        <v>127.1831691</v>
+        <v>139.25858719999999</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0959938999999999</v>
+        <f>D32-A32</f>
+        <v>-2.0278875999999997</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2329674499999967</v>
+        <f>E32-B32</f>
+        <v>1.4595623000000018</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.8168308999999994</v>
+        <f>F32-C32</f>
+        <v>9.2585871999999938</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4317481698557324</v>
+        <f>SQRT(G32*G32+H32*H32)</f>
+        <v>2.4985296127552807</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7212814299366701</v>
+        <f>SQRT(G32*G32+H32*H32+I32*I32)</f>
+        <v>9.5897907780002569</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2251,33 +2260,33 @@
         <v>130</v>
       </c>
       <c r="D33" s="1">
-        <v>-9.0555828000000005E-2</v>
+        <v>-2.0905558279999998</v>
       </c>
       <c r="E33" s="1">
         <v>-22.465242140000001</v>
       </c>
       <c r="F33" s="1">
-        <v>137.60384999999999</v>
+        <v>136.60384999999999</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.0555828000000005E-2</v>
+        <f>D33-A33</f>
+        <v>-2.0905558279999998</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f>E33-B33</f>
         <v>-2.4652421400000009</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6038499999999942</v>
+        <f>F33-C33</f>
+        <v>6.6038499999999942</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4669047745741119</v>
+        <f>SQRT(G33*G33+H33*H33)</f>
+        <v>3.2323122495848926</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
-        <v>7.9940073798637732</v>
+        <f>SQRT(G33*G33+H33*H33+I33*I33)</f>
+        <v>7.3524606290218566</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2291,113 +2300,113 @@
         <v>130</v>
       </c>
       <c r="D34" s="1">
-        <v>-30.989244830000001</v>
+        <v>-33.989244829999997</v>
       </c>
       <c r="E34" s="1">
         <v>37.71969009</v>
       </c>
       <c r="F34" s="1">
-        <v>139.58048439999999</v>
+        <v>138.58048439999999</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.98924483000000052</v>
+        <f>D34-A34</f>
+        <v>-3.989244829999997</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f>E34-B34</f>
         <v>-2.2803099099999997</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5804843999999889</v>
+        <f>F34-C34</f>
+        <v>8.5804843999999889</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4856424962825883</v>
+        <f>SQRT(G34*G34+H34*H34)</f>
+        <v>4.594985048868593</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>9.8976815445825022</v>
+        <f>SQRT(G34*G34+H34*H34+I34*I34)</f>
+        <v>9.7333755777720334</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>-50</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1">
-        <v>-50</v>
+        <v>-70</v>
       </c>
       <c r="C35" s="1">
         <v>130</v>
       </c>
       <c r="D35" s="1">
-        <v>-52.154889969999999</v>
+        <v>68.2711915</v>
       </c>
       <c r="E35" s="1">
-        <v>-51.245543230000003</v>
-      </c>
-      <c r="F35" s="1">
-        <v>134.77196069999999</v>
+        <v>-71.888107829999996</v>
+      </c>
+      <c r="F35" s="3">
+        <v>125.2669561</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1548899699999993</v>
+        <f>D35-A35</f>
+        <v>-1.7288084999999995</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.2455432300000027</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7719606999999939</v>
+        <f>E35-B35</f>
+        <v>-1.8881078299999956</v>
+      </c>
+      <c r="I35" s="2">
+        <f>F35-C35</f>
+        <v>-4.7330438999999984</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4889613738677099</v>
+        <f>SQRT(G35*G35+H35*H35)</f>
+        <v>2.5600253919403886</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3820570085191282</v>
+        <f>SQRT(G35*G35+H35*H35+I35*I35)</f>
+        <v>5.3810254196302338</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
-        <v>-70</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1">
         <v>130</v>
       </c>
       <c r="D36" s="1">
-        <v>17.9721124</v>
+        <v>53.578531259999998</v>
       </c>
       <c r="E36" s="1">
-        <v>-68.540437699999998</v>
+        <v>62.580256009999999</v>
       </c>
       <c r="F36" s="1">
-        <v>139.25858719999999</v>
+        <v>136.56573610000001</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0278875999999997</v>
+        <f>D36-A36</f>
+        <v>-6.4214687400000017</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4595623000000018</v>
+        <f>E36-B36</f>
+        <v>2.5802560099999994</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="2"/>
-        <v>9.2585871999999938</v>
+        <f>F36-C36</f>
+        <v>6.5657361000000094</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4985296127552807</v>
+        <f>SQRT(G36*G36+H36*H36)</f>
+        <v>6.9204755512853549</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>9.5897907780002569</v>
+        <f>SQRT(G36*G36+H36*H36+I36*I36)</f>
+        <v>9.5394901536078791</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2411,73 +2420,73 @@
         <v>130</v>
       </c>
       <c r="D37" s="1">
-        <v>-60.299417499999997</v>
+        <v>-63.299417499999997</v>
       </c>
       <c r="E37" s="1">
         <v>67.480833500000003</v>
       </c>
       <c r="F37" s="1">
-        <v>137.26959210000001</v>
+        <v>135.56959209999999</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.29941749999999701</v>
+        <f>D37-A37</f>
+        <v>-3.299417499999997</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f>E37-B37</f>
         <v>-2.5191664999999972</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="2"/>
-        <v>7.2695921000000112</v>
+        <f>F37-C37</f>
+        <v>5.5695920999999942</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5368978485600251</v>
+        <f>SQRT(G37*G37+H37*H37)</f>
+        <v>4.151187263184891</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6995337517547808</v>
+        <f>SQRT(G37*G37+H37*H37+I37*I37)</f>
+        <v>6.9464171955340266</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>70</v>
+        <v>-50</v>
       </c>
       <c r="B38" s="1">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="C38" s="1">
         <v>130</v>
       </c>
       <c r="D38" s="1">
-        <v>68.2711915</v>
+        <v>-48.251850019999999</v>
       </c>
       <c r="E38" s="1">
-        <v>-71.888107829999996</v>
-      </c>
-      <c r="F38" s="3">
-        <v>125.2669561</v>
+        <v>-58.047735449999998</v>
+      </c>
+      <c r="F38" s="1">
+        <v>137.16745589999999</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7288084999999995</v>
+        <f>D38-A38</f>
+        <v>1.7481499800000009</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.8881078299999956</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.7330438999999984</v>
+        <f>E38-B38</f>
+        <v>1.9522645500000024</v>
+      </c>
+      <c r="I38" s="1">
+        <f>F38-C38</f>
+        <v>7.1674558999999931</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5600253919403886</v>
+        <f>SQRT(G38*G38+H38*H38)</f>
+        <v>2.6205658216806378</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>5.3810254196302338</v>
+        <f>SQRT(G38*G38+H38*H38+I38*I38)</f>
+        <v>7.6314998069976667</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2494,75 +2503,75 @@
         <v>-32.538397719999999</v>
       </c>
       <c r="E39" s="1">
-        <v>-20.57788244</v>
+        <v>-22.57788244</v>
       </c>
       <c r="F39" s="1">
-        <v>137.4813643</v>
+        <v>136.4813643</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f>D39-A39</f>
         <v>-2.538397719999999</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.57788243999999978</v>
+      <c r="H39" s="4">
+        <f>E39-B39</f>
+        <v>-2.5778824399999998</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="2"/>
-        <v>7.4813642999999956</v>
+        <f>F39-C39</f>
+        <v>6.4813642999999956</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6033461351425298</v>
+        <f>SQRT(G39*G39+H39*H39)</f>
+        <v>3.6178641294777152</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="4"/>
-        <v>7.9213775878110981</v>
+        <f>SQRT(G39*G39+H39*H39+I39*I39)</f>
+        <v>7.4227369648045576</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="C40" s="1">
         <v>130</v>
       </c>
       <c r="D40" s="1">
-        <v>59.578531259999998</v>
+        <v>17.487488769999999</v>
       </c>
       <c r="E40" s="1">
-        <v>62.580256009999999</v>
+        <v>-40.763556860000001</v>
       </c>
       <c r="F40" s="1">
-        <v>136.56573610000001</v>
+        <v>136.2492641</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.42146874000000167</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5802560099999994</v>
+        <f>D40-A40</f>
+        <v>-2.5125112300000012</v>
+      </c>
+      <c r="H40" s="4">
+        <f>E40-B40</f>
+        <v>-0.76355686000000134</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="2"/>
-        <v>6.5657361000000094</v>
+        <f>F40-C40</f>
+        <v>6.2492641000000049</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6144515631272087</v>
+        <f>SQRT(G40*G40+H40*H40)</f>
+        <v>2.6259725359053512</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="4"/>
-        <v>7.067124415968749</v>
+        <f>SQRT(G40*G40+H40*H40+I40*I40)</f>
+        <v>6.7785716453304561</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="B41" s="1">
         <v>-60</v>
@@ -2571,73 +2580,73 @@
         <v>130</v>
       </c>
       <c r="D41" s="1">
-        <v>-48.251850019999999</v>
+        <v>-28.084860679999998</v>
       </c>
       <c r="E41" s="1">
-        <v>-58.047735449999998</v>
+        <v>-61.825747210000003</v>
       </c>
       <c r="F41" s="1">
-        <v>137.16745589999999</v>
+        <v>135.26640219999999</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7481499800000009</v>
+        <f>D41-A41</f>
+        <v>1.9151393200000015</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9522645500000024</v>
+        <f>E41-B41</f>
+        <v>-1.825747210000003</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="2"/>
-        <v>7.1674558999999931</v>
+        <f>F41-C41</f>
+        <v>5.2664021999999875</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6205658216806378</v>
+        <f>SQRT(G41*G41+H41*H41)</f>
+        <v>2.645961354561488</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6314998069976667</v>
+        <f>SQRT(G41*G41+H41*H41+I41*I41)</f>
+        <v>5.8937342680169733</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="C42" s="1">
         <v>130</v>
       </c>
       <c r="D42" s="1">
-        <v>17.487488769999999</v>
+        <v>42.255168060000003</v>
       </c>
       <c r="E42" s="1">
-        <v>-40.763556860000001</v>
+        <v>-21.4261053</v>
       </c>
       <c r="F42" s="1">
-        <v>136.2492641</v>
+        <v>137.53501700000001</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.5125112300000012</v>
+        <f>D42-A42</f>
+        <v>2.2551680600000026</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.76355686000000134</v>
+        <f>E42-B42</f>
+        <v>-1.4261052999999997</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="2"/>
-        <v>6.2492641000000049</v>
+        <f>F42-C42</f>
+        <v>7.5350170000000105</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6259725359053512</v>
+        <f>SQRT(G42*G42+H42*H42)</f>
+        <v>2.6682502329302373</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="4"/>
-        <v>6.7785716453304561</v>
+        <f>SQRT(G42*G42+H42*H42+I42*I42)</f>
+        <v>7.9934998902746868</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2654,30 +2663,30 @@
         <v>-47.517489640000001</v>
       </c>
       <c r="E43" s="1">
-        <v>69.097694349999998</v>
+        <v>66.097694349999998</v>
       </c>
       <c r="F43" s="1">
         <v>135.34897319999999</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f>D43-A43</f>
         <v>2.4825103599999991</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.9023056500000024</v>
+      <c r="H43" s="4">
+        <f>E43-B43</f>
+        <v>-3.9023056500000024</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="2"/>
+        <f>F43-C43</f>
         <v>5.348973199999989</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6414036369947804</v>
+        <f>SQRT(G43*G43+H43*H43)</f>
+        <v>4.6250240078867986</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="4"/>
-        <v>5.9656120782236064</v>
+        <f>SQRT(G43*G43+H43*H43+I43*I43)</f>
+        <v>7.0712347838158633</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2685,39 +2694,39 @@
         <v>-30</v>
       </c>
       <c r="B44" s="1">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1">
         <v>130</v>
       </c>
       <c r="D44" s="1">
-        <v>-28.084860679999998</v>
+        <v>-28.86461053</v>
       </c>
       <c r="E44" s="1">
-        <v>-61.825747210000003</v>
+        <v>62.421452619999997</v>
       </c>
       <c r="F44" s="1">
-        <v>135.26640219999999</v>
+        <v>136.6043349</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9151393200000015</v>
+        <f>D44-A44</f>
+        <v>1.1353894699999998</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.825747210000003</v>
+        <f>E44-B44</f>
+        <v>2.4214526199999966</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2664021999999875</v>
+        <f>F44-C44</f>
+        <v>6.6043348999999978</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="3"/>
-        <v>2.645961354561488</v>
+        <f>SQRT(G44*G44+H44*H44)</f>
+        <v>2.6744236836170385</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="4"/>
-        <v>5.8937342680169733</v>
+        <f>SQRT(G44*G44+H44*H44+I44*I44)</f>
+        <v>7.1252916790016192</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2725,44 +2734,44 @@
         <v>40</v>
       </c>
       <c r="B45" s="1">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="C45" s="1">
         <v>130</v>
       </c>
       <c r="D45" s="1">
-        <v>42.255168060000003</v>
+        <v>37.545887989999997</v>
       </c>
       <c r="E45" s="1">
-        <v>-21.4261053</v>
+        <v>-31.076675590000001</v>
       </c>
       <c r="F45" s="1">
-        <v>137.53501700000001</v>
+        <v>136.83423519999999</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2551680600000026</v>
+        <f>D45-A45</f>
+        <v>-2.4541120100000029</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.4261052999999997</v>
+        <f>E45-B45</f>
+        <v>-1.0766755900000007</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5350170000000105</v>
+        <f>F45-C45</f>
+        <v>6.8342351999999948</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6682502329302373</v>
+        <f>SQRT(G45*G45+H45*H45)</f>
+        <v>2.6799059841211039</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="4"/>
-        <v>7.9934998902746868</v>
+        <f>SQRT(G45*G45+H45*H45+I45*I45)</f>
+        <v>7.3408900586132662</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="B46" s="1">
         <v>60</v>
@@ -2771,73 +2780,73 @@
         <v>130</v>
       </c>
       <c r="D46" s="1">
-        <v>-28.86461053</v>
+        <v>-47.535399009999999</v>
       </c>
       <c r="E46" s="1">
-        <v>62.421452619999997</v>
+        <v>61.099758749999999</v>
       </c>
       <c r="F46" s="1">
-        <v>136.6043349</v>
+        <v>137.2485897</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1353894699999998</v>
+        <f>D46-A46</f>
+        <v>2.464600990000001</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4214526199999966</v>
+        <f>E46-B46</f>
+        <v>1.0997587499999995</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="2"/>
-        <v>6.6043348999999978</v>
+        <f>F46-C46</f>
+        <v>7.2485896999999966</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6744236836170385</v>
+        <f>SQRT(G46*G46+H46*H46)</f>
+        <v>2.6988381478166761</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="4"/>
-        <v>7.1252916790016192</v>
+        <f>SQRT(G46*G46+H46*H46+I46*I46)</f>
+        <v>7.7347126635096526</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>130</v>
       </c>
       <c r="D47" s="1">
-        <v>37.545887989999997</v>
+        <v>21.580502679999999</v>
       </c>
       <c r="E47" s="1">
-        <v>-31.076675590000001</v>
+        <v>2.228419546</v>
       </c>
       <c r="F47" s="1">
-        <v>136.83423519999999</v>
+        <v>125.0468462</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.4541120100000029</v>
+        <f>D47-A47</f>
+        <v>1.5805026799999986</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.0766755900000007</v>
+        <f>E47-B47</f>
+        <v>2.228419546</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="2"/>
-        <v>6.8342351999999948</v>
+        <f>F47-C47</f>
+        <v>-4.9531537999999955</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6799059841211039</v>
+        <f>SQRT(G47*G47+H47*H47)</f>
+        <v>2.732003366484387</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="4"/>
-        <v>7.3408900586132662</v>
+        <f>SQRT(G47*G47+H47*H47+I47*I47)</f>
+        <v>5.6566399002355121</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2851,7 +2860,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="1">
-        <v>39.241526819999997</v>
+        <v>36.241526819999997</v>
       </c>
       <c r="E48" s="1">
         <v>47.419156870000002</v>
@@ -2860,24 +2869,24 @@
         <v>134.05568510000001</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.75847318000000286</v>
+        <f>D48-A48</f>
+        <v>-3.7584731800000029</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f>E48-B48</f>
         <v>-2.5808431299999981</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="2"/>
+        <f>F48-C48</f>
         <v>4.0556851000000051</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6899875141805962</v>
+        <f>SQRT(G48*G48+H48*H48)</f>
+        <v>4.5592622107581748</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="4"/>
-        <v>4.8666841336591338</v>
+        <f>SQRT(G48*G48+H48*H48+I48*I48)</f>
+        <v>6.1020859988047995</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2885,39 +2894,39 @@
         <v>-50</v>
       </c>
       <c r="B49" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
         <v>130</v>
       </c>
       <c r="D49" s="1">
-        <v>-47.535399009999999</v>
+        <v>-47.745125729999998</v>
       </c>
       <c r="E49" s="1">
-        <v>61.099758749999999</v>
+        <v>41.590786399999999</v>
       </c>
       <c r="F49" s="1">
-        <v>137.2485897</v>
+        <v>137.03345580000001</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>2.464600990000001</v>
+        <f>D49-A49</f>
+        <v>2.254874270000002</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0997587499999995</v>
+        <f>E49-B49</f>
+        <v>1.5907863999999989</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="2"/>
-        <v>7.2485896999999966</v>
+        <f>F49-C49</f>
+        <v>7.0334558000000129</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6988381478166761</v>
+        <f>SQRT(G49*G49+H49*H49)</f>
+        <v>2.7595396978360354</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="4"/>
-        <v>7.7347126635096526</v>
+        <f>SQRT(G49*G49+H49*H49+I49*I49)</f>
+        <v>7.5554324717045027</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2934,110 +2943,110 @@
         <v>52.618896059999997</v>
       </c>
       <c r="E50" s="1">
-        <v>39.26627431</v>
+        <v>36.26627431</v>
       </c>
       <c r="F50" s="3">
-        <v>128.85122559999999</v>
+        <v>125.85122560000001</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f>D50-A50</f>
         <v>2.6188960599999973</v>
       </c>
-      <c r="H50" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.73372568999999999</v>
+      <c r="H50" s="4">
+        <f>E50-B50</f>
+        <v>-3.73372569</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.1487744000000077</v>
+        <f>F50-C50</f>
+        <v>-4.1487743999999935</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7197371125256731</v>
+        <f>SQRT(G50*G50+H50*H50)</f>
+        <v>4.560627599492145</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9523977684832481</v>
+        <f>SQRT(G50*G50+H50*H50+I50*I50)</f>
+        <v>6.1653591236313874</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C51" s="1">
         <v>130</v>
       </c>
       <c r="D51" s="1">
-        <v>21.580502679999999</v>
+        <v>31.56910074</v>
       </c>
       <c r="E51" s="1">
-        <v>2.228419546</v>
+        <v>-32.322089089999999</v>
       </c>
       <c r="F51" s="1">
-        <v>127.0468462</v>
+        <v>137.1110405</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5805026799999986</v>
+        <f>D51-A51</f>
+        <v>1.5691007399999997</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
-        <v>2.228419546</v>
+        <f>E51-B51</f>
+        <v>-2.3220890899999986</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.9531537999999955</v>
+        <f>F51-C51</f>
+        <v>7.1110405000000014</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="3"/>
-        <v>2.732003366484387</v>
+        <f>SQRT(G51*G51+H51*H51)</f>
+        <v>2.8025300844354142</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="4"/>
-        <v>4.0230535369214806</v>
+        <f>SQRT(G51*G51+H51*H51+I51*I51)</f>
+        <v>7.6433678353724313</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="C52" s="1">
         <v>130</v>
       </c>
       <c r="D52" s="1">
-        <v>31.56910074</v>
+        <v>38.64791761</v>
       </c>
       <c r="E52" s="1">
-        <v>-32.322089089999999</v>
-      </c>
-      <c r="F52" s="1">
-        <v>137.1110405</v>
+        <v>-7.5380791089999999</v>
+      </c>
+      <c r="F52" s="3">
+        <v>124.5266781</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5691007399999997</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.3220890899999986</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="2"/>
-        <v>7.1110405000000014</v>
+        <f>D52-A52</f>
+        <v>-1.3520823899999996</v>
+      </c>
+      <c r="H52" s="4">
+        <f>E52-B52</f>
+        <v>2.4619208910000001</v>
+      </c>
+      <c r="I52" s="2">
+        <f>F52-C52</f>
+        <v>-5.473321900000002</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8025300844354142</v>
+        <f>SQRT(G52*G52+H52*H52)</f>
+        <v>2.8087686381918937</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6433678353724313</v>
+        <f>SQRT(G52*G52+H52*H52+I52*I52)</f>
+        <v>6.1519455364876219</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3051,7 +3060,7 @@
         <v>130</v>
       </c>
       <c r="D53" s="1">
-        <v>49.47591989</v>
+        <v>45.47591989</v>
       </c>
       <c r="E53" s="1">
         <v>12.75695685</v>
@@ -3060,24 +3069,24 @@
         <v>135.11364560000001</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.52408010999999988</v>
+        <f>D53-A53</f>
+        <v>-4.5240801099999999</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
+        <f>E53-B53</f>
         <v>2.7569568499999999</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="2"/>
+        <f>F53-C53</f>
         <v>5.1136456000000123</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8063269649952649</v>
+        <f>SQRT(G53*G53+H53*H53)</f>
+        <v>5.2979346838612056</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="4"/>
-        <v>5.8330817203995196</v>
+        <f>SQRT(G53*G53+H53*H53+I53*I53)</f>
+        <v>7.363252218745397</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,23 +3109,23 @@
         <v>124.0746729</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f>D54-A54</f>
         <v>-2.7377659899999998</v>
       </c>
-      <c r="H54" s="1">
-        <f t="shared" si="1"/>
+      <c r="H54" s="4">
+        <f>E54-B54</f>
         <v>-0.73274047999999681</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="2"/>
+        <f>F54-C54</f>
         <v>-5.9253271000000041</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G54*G54+H54*H54)</f>
         <v>2.834126184034738</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="4"/>
+        <f>SQRT(G54*G54+H54*H54+I54*I54)</f>
         <v>6.568239678104459</v>
       </c>
     </row>
@@ -3134,30 +3143,30 @@
         <v>52.789585440000003</v>
       </c>
       <c r="E55" s="1">
-        <v>29.34963441</v>
+        <v>26.34963441</v>
       </c>
       <c r="F55" s="1">
-        <v>137.91913589999999</v>
+        <v>136.91913589999999</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f>D55-A55</f>
         <v>2.7895854400000033</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.65036558999999983</v>
+      <c r="H55" s="4">
+        <f>E55-B55</f>
+        <v>-3.6503655899999998</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9191358999999863</v>
+        <f>F55-C55</f>
+        <v>6.9191358999999863</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8643956304456371</v>
+        <f>SQRT(G55*G55+H55*H55)</f>
+        <v>4.5942307155514142</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="4"/>
-        <v>8.4212514349343977</v>
+        <f>SQRT(G55*G55+H55*H55+I55*I55)</f>
+        <v>8.3055040467382035</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,27 +3186,27 @@
         <v>18.322335519999999</v>
       </c>
       <c r="F56" s="1">
-        <v>131.90108069999999</v>
+        <v>137.90108069999999</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f>D56-A56</f>
         <v>-2.3393740440000004</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
+        <f>E56-B56</f>
         <v>-1.6776644800000007</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9010806999999943</v>
+        <f>F56-C56</f>
+        <v>7.9010806999999943</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G56*G56+H56*H56)</f>
         <v>2.8787547698952385</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4498314238679919</v>
+        <f>SQRT(G56*G56+H56*H56+I56*I56)</f>
+        <v>8.4091798204763695</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3217,27 +3226,27 @@
         <v>-21.776966770000001</v>
       </c>
       <c r="F57" s="1">
-        <v>127.31578620000001</v>
+        <v>125.31578620000001</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f>D57-A57</f>
         <v>2.2793993000000015</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
+        <f>E57-B57</f>
         <v>-1.7769667700000014</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.6842137999999949</v>
+        <f>F57-C57</f>
+        <v>-4.6842137999999949</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G57*G57+H57*H57)</f>
         <v>2.8902027732539346</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="4"/>
-        <v>3.9443980269028565</v>
+        <f>SQRT(G57*G57+H57*H57+I57*I57)</f>
+        <v>5.5041012885515768</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,23 +3269,23 @@
         <v>126.3687254</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f>D58-A58</f>
         <v>1.513213669999999</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
+        <f>E58-B58</f>
         <v>-2.9031001099999969</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="2"/>
+        <f>F58-C58</f>
         <v>-3.6312745999999976</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G58*G58+H58*H58)</f>
         <v>3.273806020483935</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="4"/>
+        <f>SQRT(G58*G58+H58*H58+I58*I58)</f>
         <v>4.8891677288023168</v>
       </c>
     </row>
@@ -3300,23 +3309,23 @@
         <v>135.8588852</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f>D59-A59</f>
         <v>-0.97311078999999978</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="1"/>
+        <f>E59-B59</f>
         <v>-2.8011054169999996</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="2"/>
+        <f>F59-C59</f>
         <v>5.8588852000000031</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G59*G59+H59*H59)</f>
         <v>2.9653222703040498</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="4"/>
+        <f>SQRT(G59*G59+H59*H59+I59*I59)</f>
         <v>6.5665570852266439</v>
       </c>
     </row>
@@ -3337,27 +3346,27 @@
         <v>-41.052627690000001</v>
       </c>
       <c r="F60" s="1">
-        <v>128.8183837</v>
+        <v>124.8183837</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f>D60-A60</f>
         <v>-2.7797260699999988</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
+        <f>E60-B60</f>
         <v>-1.0526276900000013</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.1816163000000017</v>
+        <f>F60-C60</f>
+        <v>-5.1816163000000017</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G60*G60+H60*H60)</f>
         <v>2.9723563174680754</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="4"/>
-        <v>3.1986120675096057</v>
+        <f>SQRT(G60*G60+H60*H60+I60*I60)</f>
+        <v>5.9736127727212187</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3371,33 +3380,33 @@
         <v>130</v>
       </c>
       <c r="D61" s="1">
-        <v>31.066096779999999</v>
+        <v>36.066096780000002</v>
       </c>
       <c r="E61" s="1">
         <v>12.784465580000001</v>
       </c>
       <c r="F61" s="1">
-        <v>127.48535270000001</v>
+        <v>124.48535270000001</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0660967799999987</v>
+        <f>D61-A61</f>
+        <v>6.0660967800000023</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
+        <f>E61-B61</f>
         <v>2.7844655800000009</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.5146472999999929</v>
+        <f>F61-C61</f>
+        <v>-5.5146472999999929</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9815785937202977</v>
+        <f>SQRT(G61*G61+H61*H61)</f>
+        <v>6.6746369721904077</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="4"/>
-        <v>3.9004181768021184</v>
+        <f>SQRT(G61*G61+H61*H61+I61*I61)</f>
+        <v>8.6580663865512335</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3420,23 +3429,23 @@
         <v>137.5627982</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f>D62-A62</f>
         <v>-1.7109327319999998</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="1"/>
+        <f>E62-B62</f>
         <v>-2.4533484700000017</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="2"/>
+        <f>F62-C62</f>
         <v>7.5627982000000031</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="3"/>
+        <f>SQRT(G62*G62+H62*H62)</f>
         <v>2.9910214858272637</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="4"/>
+        <f>SQRT(G62*G62+H62*H62+I62*I62)</f>
         <v>8.1327809599548182</v>
       </c>
     </row>
@@ -3460,23 +3469,23 @@
         <v>136.90986090000001</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G66" si="0">D63-A63</f>
         <v>2.1061228800000009</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H66" si="1">E63-B63</f>
         <v>2.1638452799999968</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I3:I66" si="2">F63-C63</f>
         <v>6.9098609000000124</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J3:J66" si="3">SQRT(G63*G63+H63*H63)</f>
         <v>3.0195993080933374</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K3:K66" si="4">SQRT(G63*G63+H63*H63+I63*I63)</f>
         <v>7.5408326886880834</v>
       </c>
     </row>
@@ -3617,7 +3626,7 @@
         <v>2.967267471</v>
       </c>
       <c r="F67" s="1">
-        <v>131.1015988</v>
+        <v>134.1015988</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G130" si="5">D67-A67</f>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I130" si="7">F67-C67</f>
-        <v>1.101598800000005</v>
+        <v>4.101598800000005</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" si="8">SQRT(G67*G67+H67*H67)</f>
@@ -3637,7 +3646,7 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:K130" si="9">SQRT(G67*G67+H67*H67+I67*I67)</f>
-        <v>3.2427495981207839</v>
+        <v>5.111263812024629</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3777,19 +3786,19 @@
         <v>29.292708940000001</v>
       </c>
       <c r="F71" s="1">
-        <v>131.01215819999999</v>
+        <v>137.01215819999999</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="5"/>
         <v>-3.1061776600000002</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="4">
         <f t="shared" si="6"/>
         <v>-0.70729105999999931</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" si="7"/>
-        <v>1.0121581999999876</v>
+        <v>7.0121581999999876</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" si="8"/>
@@ -3797,7 +3806,7 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" si="9"/>
-        <v>3.3426134267764516</v>
+        <v>7.7018804795235605</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3971,7 +3980,7 @@
         <v>130</v>
       </c>
       <c r="D76" s="1">
-        <v>59.444163189999998</v>
+        <v>56.444163189999998</v>
       </c>
       <c r="E76" s="1">
         <v>26.819615420000002</v>
@@ -3981,7 +3990,7 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.5558368100000024</v>
+        <v>-3.5558368100000024</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" si="6"/>
@@ -3993,11 +4002,11 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" si="8"/>
-        <v>3.2285911224639059</v>
+        <v>4.7706206615127931</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="9"/>
-        <v>4.3129950250972442</v>
+        <v>5.5620991492882972</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,7 +4023,7 @@
         <v>-6.8639582619999997</v>
       </c>
       <c r="E77" s="1">
-        <v>19.045695850000001</v>
+        <v>17.045695850000001</v>
       </c>
       <c r="F77" s="1">
         <v>128.4883485</v>
@@ -4023,9 +4032,9 @@
         <f t="shared" si="5"/>
         <v>3.1360417380000003</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="4">
         <f t="shared" si="6"/>
-        <v>-0.95430414999999869</v>
+        <v>-2.9543041499999987</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="7"/>
@@ -4033,11 +4042,11 @@
       </c>
       <c r="J77" s="1">
         <f t="shared" si="8"/>
-        <v>3.2780259598095438</v>
+        <v>4.3084418057094931</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="9"/>
-        <v>3.6097845435202265</v>
+        <v>4.5659348495831082</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,7 +4106,7 @@
         <v>41.194828200000003</v>
       </c>
       <c r="F79" s="1">
-        <v>131.91197439999999</v>
+        <v>135.91197439999999</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="5"/>
@@ -4109,7 +4118,7 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" si="7"/>
-        <v>1.9119743999999912</v>
+        <v>5.9119743999999912</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="8"/>
@@ -4117,7 +4126,7 @@
       </c>
       <c r="K79" s="1">
         <f t="shared" si="9"/>
-        <v>3.813446200102752</v>
+        <v>6.7703889933354677</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,8 +4672,8 @@
         <f t="shared" si="5"/>
         <v>-3.3716879209999999</v>
       </c>
-      <c r="H93" s="1">
-        <f t="shared" si="6"/>
+      <c r="H93" s="4">
+        <f>E93-B93</f>
         <v>-0.63742756999999983</v>
       </c>
       <c r="I93" s="1">
@@ -4697,7 +4706,7 @@
         <v>-7.0783192880000003</v>
       </c>
       <c r="F94" s="1">
-        <v>131.94504910000001</v>
+        <v>135.94504910000001</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="5"/>
@@ -4709,7 +4718,7 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" si="7"/>
-        <v>1.9450491000000056</v>
+        <v>5.9450491000000056</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" si="8"/>
@@ -4717,7 +4726,7 @@
       </c>
       <c r="K94" s="1">
         <f t="shared" si="9"/>
-        <v>3.949670599553964</v>
+        <v>6.8673350467980674</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4943,7 +4952,7 @@
         <f t="shared" si="5"/>
         <v>3.494064299999998</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="4">
         <f t="shared" si="6"/>
         <v>0.72437417000000082</v>
       </c>
@@ -5174,7 +5183,7 @@
         <v>23.593292609999999</v>
       </c>
       <c r="E106" s="1">
-        <v>40.847110559999997</v>
+        <v>43.847110559999997</v>
       </c>
       <c r="F106" s="1">
         <v>134.66742170000001</v>
@@ -5183,9 +5192,9 @@
         <f t="shared" si="5"/>
         <v>3.5932926099999989</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="4">
         <f t="shared" si="6"/>
-        <v>0.84711055999999729</v>
+        <v>3.8471105599999973</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="7"/>
@@ -5193,11 +5202,11 @@
       </c>
       <c r="J106" s="1">
         <f t="shared" si="8"/>
-        <v>3.6917946966135742</v>
+        <v>5.2642199272013794</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="9"/>
-        <v>5.950980877769231</v>
+        <v>7.0353988350039565</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5494,7 +5503,7 @@
         <v>6.2376526459999999</v>
       </c>
       <c r="E114" s="1">
-        <v>-19.34467854</v>
+        <v>-18.34467854</v>
       </c>
       <c r="F114" s="1">
         <v>134.23980220000001</v>
@@ -5503,9 +5512,9 @@
         <f t="shared" si="5"/>
         <v>-3.7623473540000001</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="4">
         <f t="shared" si="6"/>
-        <v>0.65532145999999969</v>
+        <v>1.6553214599999997</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="7"/>
@@ -5513,11 +5522,11 @@
       </c>
       <c r="J114" s="1">
         <f t="shared" si="8"/>
-        <v>3.8189925147985475</v>
+        <v>4.110394962541597</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="9"/>
-        <v>5.7061919458788184</v>
+        <v>5.9051900429378472</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5657,7 +5666,7 @@
         <v>-7.3633727980000003</v>
       </c>
       <c r="F118" s="1">
-        <v>128.8880762</v>
+        <v>125.8880762</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="5"/>
@@ -5669,7 +5678,7 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" si="7"/>
-        <v>-1.1119237999999996</v>
+        <v>-4.1119237999999996</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="8"/>
@@ -5677,7 +5686,7 @@
       </c>
       <c r="K118" s="1">
         <f t="shared" si="9"/>
-        <v>4.0946033644051152</v>
+        <v>5.6953770298196842</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6014,30 +6023,30 @@
         <v>3.9248171009999999</v>
       </c>
       <c r="E127" s="1">
-        <v>40.838620849999998</v>
+        <v>43.838620849999998</v>
       </c>
       <c r="F127" s="1">
-        <v>129.8600783</v>
+        <v>125.8600783</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" si="5"/>
         <v>3.9248171009999999</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="4">
         <f t="shared" si="6"/>
-        <v>0.83862084999999809</v>
+        <v>3.8386208499999981</v>
       </c>
       <c r="I127" s="1">
         <f t="shared" si="7"/>
-        <v>-0.13992170000000215</v>
+        <v>-4.1399217000000021</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="8"/>
-        <v>4.0134117912764395</v>
+        <v>5.4899179690006985</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="9"/>
-        <v>4.0158501327225418</v>
+        <v>6.8759109206335465</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6223,7 +6232,7 @@
         <f t="shared" si="10"/>
         <v>-4.0831173699999965</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="4">
         <f t="shared" si="11"/>
         <v>-0.79393762000000123</v>
       </c>
@@ -6943,7 +6952,7 @@
         <f t="shared" si="10"/>
         <v>-4.5276726200000006</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="4">
         <f t="shared" si="11"/>
         <v>0.45355317000000639</v>
       </c>
@@ -7103,7 +7112,7 @@
         <f t="shared" si="10"/>
         <v>4.5505734990000004</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="4">
         <f t="shared" si="11"/>
         <v>0.81726461000000228</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>-26.85682937</v>
       </c>
       <c r="F163" s="1">
-        <v>131.30843999999999</v>
+        <v>137.30843999999999</v>
       </c>
       <c r="G163" s="1">
         <f t="shared" si="10"/>
@@ -7469,7 +7478,7 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" si="12"/>
-        <v>1.3084399999999903</v>
+        <v>7.3084399999999903</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" si="13"/>
@@ -7477,7 +7486,7 @@
       </c>
       <c r="K163" s="1">
         <f t="shared" si="14"/>
-        <v>4.9447916001984753</v>
+        <v>8.7265253090444475</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -7614,30 +7623,30 @@
         <v>64.857842419999997</v>
       </c>
       <c r="E167" s="1">
-        <v>-70.933723700000002</v>
+        <v>-72.933723700000002</v>
       </c>
       <c r="F167" s="1">
-        <v>135.86849359999999</v>
+        <v>134.86849359999999</v>
       </c>
       <c r="G167" s="1">
         <f t="shared" si="10"/>
         <v>4.8578424199999972</v>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="4">
         <f t="shared" si="11"/>
-        <v>-0.9337237000000016</v>
+        <v>-2.9337237000000016</v>
       </c>
       <c r="I167" s="1">
         <f t="shared" si="12"/>
-        <v>5.8684935999999936</v>
+        <v>4.8684935999999936</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" si="13"/>
-        <v>4.9467638841461925</v>
+        <v>5.6749773325972965</v>
       </c>
       <c r="K167" s="1">
         <f t="shared" si="14"/>
-        <v>7.6752648201045162</v>
+        <v>7.4771383335293473</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7777,7 +7786,7 @@
         <v>1.884743863</v>
       </c>
       <c r="F171" s="1">
-        <v>128.69792960000001</v>
+        <v>125.69792959999999</v>
       </c>
       <c r="G171" s="1">
         <f t="shared" si="10"/>
@@ -7789,7 +7798,7 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" si="12"/>
-        <v>-1.302070399999991</v>
+        <v>-4.3020704000000052</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" si="13"/>
@@ -7797,7 +7806,7 @@
       </c>
       <c r="K171" s="1">
         <f t="shared" si="14"/>
-        <v>4.2865494386710319</v>
+        <v>5.9318570861215969</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7854,7 +7863,7 @@
         <v>4.2604513949999996</v>
       </c>
       <c r="E173" s="1">
-        <v>-9.4510559759999992</v>
+        <v>-7.4510559760000001</v>
       </c>
       <c r="F173" s="1">
         <v>126.88809019999999</v>
@@ -7863,9 +7872,9 @@
         <f t="shared" si="10"/>
         <v>4.2604513949999996</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="4">
         <f t="shared" si="11"/>
-        <v>0.54894402400000075</v>
+        <v>2.5489440239999999</v>
       </c>
       <c r="I173" s="1">
         <f t="shared" si="12"/>
@@ -7873,11 +7882,11 @@
       </c>
       <c r="J173" s="1">
         <f t="shared" si="13"/>
-        <v>4.2956705682166501</v>
+        <v>4.9647317879864117</v>
       </c>
       <c r="K173" s="1">
         <f t="shared" si="14"/>
-        <v>5.3044102626002481</v>
+        <v>5.859397949446584</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -9060,7 +9069,7 @@
         <v>124.795462</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="15"/>
+        <f>D203-A203</f>
         <v>5.7277276000000015</v>
       </c>
       <c r="H203" s="1">
@@ -9091,7 +9100,7 @@
         <v>130</v>
       </c>
       <c r="D204" s="1">
-        <v>25.900001849999999</v>
+        <v>27.900001849999999</v>
       </c>
       <c r="E204" s="1">
         <v>28.820321719999999</v>
@@ -9101,7 +9110,7 @@
       </c>
       <c r="G204" s="1">
         <f t="shared" si="15"/>
-        <v>5.9000018499999989</v>
+        <v>7.9000018499999989</v>
       </c>
       <c r="H204" s="1">
         <f t="shared" si="16"/>
@@ -9113,11 +9122,11 @@
       </c>
       <c r="J204" s="1">
         <f t="shared" si="18"/>
-        <v>6.0167817539202106</v>
+        <v>7.9875947615228426</v>
       </c>
       <c r="K204" s="1">
         <f t="shared" si="19"/>
-        <v>6.3250860936554849</v>
+        <v>8.2223306605945989</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -9457,7 +9466,7 @@
         <v>67.980699790000003</v>
       </c>
       <c r="F213" s="1">
-        <v>132.00042640000001</v>
+        <v>136.00042640000001</v>
       </c>
       <c r="G213" s="1">
         <f t="shared" si="15"/>
@@ -9469,7 +9478,7 @@
       </c>
       <c r="I213" s="1">
         <f t="shared" si="17"/>
-        <v>2.0004264000000092</v>
+        <v>6.0004264000000092</v>
       </c>
       <c r="J213" s="1">
         <f t="shared" si="18"/>
@@ -9477,7 +9486,7 @@
       </c>
       <c r="K213" s="1">
         <f t="shared" si="19"/>
-        <v>4.1856668648828732</v>
+        <v>7.0372734992878092</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -9497,7 +9506,7 @@
         <v>16.115450670000001</v>
       </c>
       <c r="F214" s="1">
-        <v>130.33891259999999</v>
+        <v>134.33891259999999</v>
       </c>
       <c r="G214" s="1">
         <f t="shared" si="15"/>
@@ -9508,8 +9517,8 @@
         <v>-3.8845493299999987</v>
       </c>
       <c r="I214" s="1">
-        <f t="shared" si="17"/>
-        <v>0.33891259999998624</v>
+        <f>F214-C214</f>
+        <v>4.3389125999999862</v>
       </c>
       <c r="J214" s="1">
         <f t="shared" si="18"/>
@@ -9517,7 +9526,7 @@
       </c>
       <c r="K214" s="1">
         <f t="shared" si="19"/>
-        <v>4.7673724425015731</v>
+        <v>6.4373240407426522</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -9617,7 +9626,7 @@
         <v>75.908137730000007</v>
       </c>
       <c r="F217" s="1">
-        <v>130.75205270000001</v>
+        <v>132.75205270000001</v>
       </c>
       <c r="G217" s="1">
         <f t="shared" si="15"/>
@@ -9629,7 +9638,7 @@
       </c>
       <c r="I217" s="1">
         <f t="shared" si="17"/>
-        <v>0.75205270000000723</v>
+        <v>2.7520527000000072</v>
       </c>
       <c r="J217" s="1">
         <f t="shared" si="18"/>
@@ -9637,7 +9646,7 @@
       </c>
       <c r="K217" s="1">
         <f t="shared" si="19"/>
-        <v>6.3172920675091628</v>
+        <v>6.8495539903131082</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -9697,7 +9706,7 @@
         <v>-62.495895709999999</v>
       </c>
       <c r="F219" s="1">
-        <v>130.7791163</v>
+        <v>137.7791163</v>
       </c>
       <c r="G219" s="1">
         <f t="shared" si="15"/>
@@ -9709,7 +9718,7 @@
       </c>
       <c r="I219" s="1">
         <f t="shared" si="17"/>
-        <v>0.77911629999999832</v>
+        <v>7.7791162999999983</v>
       </c>
       <c r="J219" s="1">
         <f t="shared" si="18"/>
@@ -9717,7 +9726,7 @@
       </c>
       <c r="K219" s="1">
         <f t="shared" si="19"/>
-        <v>4.6011029117984696</v>
+        <v>9.0043198635410739</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9731,7 +9740,7 @@
         <v>130</v>
       </c>
       <c r="D220" s="1">
-        <v>25.202981350000002</v>
+        <v>27.202981350000002</v>
       </c>
       <c r="E220" s="1">
         <v>53.72985791</v>
@@ -9741,7 +9750,7 @@
       </c>
       <c r="G220" s="1">
         <f t="shared" si="15"/>
-        <v>5.2029813500000017</v>
+        <v>7.2029813500000017</v>
       </c>
       <c r="H220" s="1">
         <f t="shared" si="16"/>
@@ -9753,11 +9762,11 @@
       </c>
       <c r="J220" s="1">
         <f t="shared" si="18"/>
-        <v>6.4017852945281915</v>
+        <v>8.1113981752369551</v>
       </c>
       <c r="K220" s="1">
         <f t="shared" si="19"/>
-        <v>6.8914153472706525</v>
+        <v>8.5031482927558955</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -9971,36 +9980,40 @@
         <v>130</v>
       </c>
       <c r="D226" s="1">
-        <v>-75.482620440000005</v>
+        <v>-74.482620440000005</v>
       </c>
       <c r="E226" s="1">
-        <v>-35.484066570000003</v>
+        <v>-34.484066570000003</v>
       </c>
       <c r="F226" s="1">
-        <v>130.7480429</v>
+        <v>134.7480429</v>
       </c>
       <c r="G226" s="1">
         <f t="shared" si="15"/>
-        <v>-5.4826204400000051</v>
+        <v>-4.4826204400000051</v>
       </c>
       <c r="H226" s="1">
         <f t="shared" si="16"/>
-        <v>-5.4840665700000031</v>
+        <v>-4.4840665700000031</v>
       </c>
       <c r="I226" s="1">
         <f t="shared" si="17"/>
-        <v>0.74804290000000151</v>
+        <v>4.7480429000000015</v>
       </c>
       <c r="J226" s="1">
         <f t="shared" si="18"/>
-        <v>7.75461881934228</v>
+        <v>6.3404052720072581</v>
       </c>
       <c r="K226" s="1">
         <f t="shared" si="19"/>
-        <v>7.7906149445045649</v>
+        <v>7.9211520875146606</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J226" xr:uid="{42C548CD-00AF-4C5C-8417-821BE1089392}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
+    <sortCondition ref="J1:J226"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>